--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">Trepa-colinas com vizinhança 1 e com Penalização - 15 rondas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">Trepa-colinas com vizinhança 1 e com  Reparação  - 15 rondas</t>
   </si>
   <si>
     <t xml:space="preserve">Ficheiro</t>
@@ -69,13 +69,16 @@
     <t xml:space="preserve">file6.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Trepa-colinas com vizinhança 1, aceitando soluções de custo igual e com Penalização - 15 rondas</t>
+    <t xml:space="preserve">Trepa-colinas com vizinhança 1, aceitando soluções de custo igual e com Reparação - 15 rondas</t>
   </si>
   <si>
     <t xml:space="preserve">5000 iterações</t>
   </si>
   <si>
     <t xml:space="preserve">Trepa-colinas com vizinhança 1 e aceitando soluções de custo igual - 15 rondas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9692</t>
   </si>
   <si>
     <t xml:space="preserve">Trepa-colinas com vizinhança 1 - 15 rondas   </t>
@@ -1290,7 +1293,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.40234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,7 +1958,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +1971,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="38"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>7</v>
       </c>
@@ -2000,26 +2003,46 @@
       <c r="D38" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="15" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G39" s="15" t="n">
+        <v>4.0088</v>
+      </c>
+      <c r="H39" s="15" t="n">
+        <v>4.0078</v>
+      </c>
+      <c r="I39" s="15" t="n">
+        <v>3.9967</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
         <v>10</v>
       </c>
@@ -2028,26 +2051,46 @@
       <c r="D40" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="I40" s="23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="15" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="F41" s="15" t="n">
+        <v>6.984</v>
+      </c>
+      <c r="G41" s="15" t="n">
+        <v>6.9728</v>
+      </c>
+      <c r="H41" s="15" t="n">
+        <v>6.9752</v>
+      </c>
+      <c r="I41" s="15" t="n">
+        <v>6.9724</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
         <v>11</v>
       </c>
@@ -2056,26 +2099,46 @@
       <c r="D42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G42" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="H42" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I42" s="19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="15" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F43" s="15" t="n">
+        <v>11.966</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <v>11.9432</v>
+      </c>
+      <c r="H43" s="15" t="n">
+        <v>11.9336</v>
+      </c>
+      <c r="I43" s="15" t="n">
+        <v>11.9094</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
         <v>12</v>
       </c>
@@ -2084,26 +2147,46 @@
       <c r="D44" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="19" t="n">
+        <v>38</v>
+      </c>
+      <c r="F44" s="19" t="n">
+        <v>37</v>
+      </c>
+      <c r="G44" s="19" t="n">
+        <v>38</v>
+      </c>
+      <c r="H44" s="19" t="n">
+        <v>38</v>
+      </c>
+      <c r="I44" s="19" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="15" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>31.885</v>
+      </c>
+      <c r="G45" s="15" t="n">
+        <v>32.4384</v>
+      </c>
+      <c r="H45" s="15" t="n">
+        <v>32.2798</v>
+      </c>
+      <c r="I45" s="15" t="n">
+        <v>32.520901</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
         <v>13</v>
       </c>
@@ -2112,26 +2195,46 @@
       <c r="D46" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="F46" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G46" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H46" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="I46" s="19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="15" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>17.160999</v>
+      </c>
+      <c r="G47" s="15" t="n">
+        <v>17.0732</v>
+      </c>
+      <c r="H47" s="15" t="n">
+        <v>16.9268</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
         <v>14</v>
       </c>
@@ -2140,28 +2243,48 @@
       <c r="D48" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="F48" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="G48" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="H48" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="I48" s="23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="E49" s="14" t="n">
+        <v>18.21999</v>
+      </c>
+      <c r="F49" s="15" t="n">
+        <v>27.193001</v>
+      </c>
+      <c r="G49" s="15" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="H49" s="15" t="n">
+        <v>34.347</v>
+      </c>
+      <c r="I49" s="15" t="n">
+        <v>35.347</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -2204,11 +2327,21 @@
       <c r="D55" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="E55" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9"/>
@@ -2217,11 +2350,21 @@
       <c r="D56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
+      <c r="E56" s="15" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F56" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G56" s="15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H56" s="15" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="I56" s="15" t="n">
+        <v>4.32</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
@@ -2232,24 +2375,44 @@
       <c r="D57" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H57" s="23" t="n">
+        <v>9</v>
+      </c>
+      <c r="I57" s="23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
+      <c r="E58" s="15" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F58" s="15" t="n">
+        <v>6.308</v>
+      </c>
+      <c r="G58" s="15" t="n">
+        <v>6.3568</v>
+      </c>
+      <c r="H58" s="15" t="n">
+        <v>6.3464</v>
+      </c>
+      <c r="I58" s="15" t="n">
+        <v>6.352</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
@@ -2260,11 +2423,21 @@
       <c r="D59" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="E59" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F59" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="G59" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="H59" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="I59" s="19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16"/>
@@ -2273,11 +2446,21 @@
       <c r="D60" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
+      <c r="E60" s="15" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F60" s="15" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="G60" s="15" t="n">
+        <v>10.444</v>
+      </c>
+      <c r="H60" s="15" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I60" s="15" t="n">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
@@ -2288,11 +2471,21 @@
       <c r="D61" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="E61" s="19" t="n">
+        <v>38</v>
+      </c>
+      <c r="F61" s="19" t="n">
+        <v>38</v>
+      </c>
+      <c r="G61" s="19" t="n">
+        <v>39</v>
+      </c>
+      <c r="H61" s="19" t="n">
+        <v>39</v>
+      </c>
+      <c r="I61" s="19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16"/>
@@ -2301,11 +2494,21 @@
       <c r="D62" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
+      <c r="E62" s="15" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F62" s="15" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="G62" s="15" t="n">
+        <v>30.037</v>
+      </c>
+      <c r="H62" s="15" t="n">
+        <v>30.0578</v>
+      </c>
+      <c r="I62" s="15" t="n">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
@@ -2316,11 +2519,21 @@
       <c r="D63" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="E63" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="F63" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="G63" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="H63" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="I63" s="19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16"/>
@@ -2329,11 +2542,21 @@
       <c r="D64" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
+      <c r="E64" s="15" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="F64" s="15" t="n">
+        <v>15.986</v>
+      </c>
+      <c r="G64" s="15" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H64" s="15" t="n">
+        <v>15.997</v>
+      </c>
+      <c r="I64" s="15" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
@@ -2344,11 +2567,21 @@
       <c r="D65" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="E65" s="23" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="G65" s="23" t="n">
+        <v>35</v>
+      </c>
+      <c r="H65" s="23" t="n">
+        <v>35</v>
+      </c>
+      <c r="I65" s="23" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22"/>
@@ -2357,11 +2590,21 @@
       <c r="D66" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
+      <c r="E66" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="F66" s="15" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="G66" s="15" t="n">
+        <v>24.434</v>
+      </c>
+      <c r="H66" s="15" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I66" s="15" t="n">
+        <v>24.72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2415,13 +2658,13 @@
       <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
   </cols>
@@ -2429,7 +2672,7 @@
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="39"/>
       <c r="C1" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -2439,20 +2682,20 @@
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>8</v>
@@ -2470,10 +2713,10 @@
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="53" t="n">
         <v>5</v>
@@ -2491,10 +2734,10 @@
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="58" t="n">
         <v>5</v>
@@ -2511,10 +2754,10 @@
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="63" t="n">
         <v>5</v>
@@ -2531,10 +2774,10 @@
     </row>
     <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>5</v>
@@ -2552,10 +2795,10 @@
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="58" t="n">
         <v>5</v>
@@ -2573,10 +2816,10 @@
     </row>
     <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="63" t="n">
         <v>5</v>
@@ -2594,10 +2837,10 @@
     </row>
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>5</v>
@@ -2615,10 +2858,10 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="63" t="n">
         <v>6</v>
@@ -2643,7 +2886,7 @@
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -2654,20 +2897,20 @@
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
       <c r="C17" s="77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="77"/>
       <c r="E17" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>8</v>
@@ -2684,10 +2927,10 @@
     </row>
     <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="67" t="n">
         <v>7</v>
@@ -2704,10 +2947,10 @@
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="58" t="n">
         <v>7</v>
@@ -2725,10 +2968,10 @@
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="83" t="n">
         <v>7</v>
@@ -2745,10 +2988,10 @@
     </row>
     <row r="22" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="67" t="n">
         <v>7</v>
@@ -2765,10 +3008,10 @@
     </row>
     <row r="23" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="71" t="n">
         <v>7</v>
@@ -2786,10 +3029,10 @@
     </row>
     <row r="24" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="83" t="n">
         <v>6</v>
@@ -2807,10 +3050,10 @@
     </row>
     <row r="25" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67" t="n">
         <v>6</v>
@@ -2827,10 +3070,10 @@
     </row>
     <row r="26" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="90" t="n">
         <v>7</v>
@@ -2856,7 +3099,7 @@
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="39"/>
       <c r="C31" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -2867,21 +3110,21 @@
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" s="91"/>
       <c r="G32" s="50"/>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>8</v>
@@ -2899,10 +3142,10 @@
     </row>
     <row r="34" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="67" t="n">
         <v>12</v>
@@ -2920,10 +3163,10 @@
     </row>
     <row r="35" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="58" t="n">
         <v>12</v>
@@ -2941,10 +3184,10 @@
     </row>
     <row r="36" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="63" t="n">
         <v>9</v>
@@ -2961,10 +3204,10 @@
     </row>
     <row r="37" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="68" t="n">
         <v>9</v>
@@ -2982,10 +3225,10 @@
     </row>
     <row r="38" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="71" t="n">
         <v>12</v>
@@ -3003,10 +3246,10 @@
     </row>
     <row r="39" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="63" t="n">
         <v>4</v>
@@ -3024,10 +3267,10 @@
     </row>
     <row r="40" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="67" t="n">
         <v>6</v>
@@ -3045,10 +3288,10 @@
     </row>
     <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" s="82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="90" t="n">
         <v>8</v>
@@ -3072,7 +3315,7 @@
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="39"/>
       <c r="C46" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
@@ -3083,20 +3326,20 @@
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" s="46" t="s">
         <v>8</v>
@@ -3113,10 +3356,10 @@
     </row>
     <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" s="67" t="n">
         <v>38</v>
@@ -3133,10 +3376,10 @@
     </row>
     <row r="50" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" s="81" t="n">
         <v>38</v>
@@ -3154,10 +3397,10 @@
     </row>
     <row r="51" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="81" t="n">
         <v>39</v>
@@ -3175,10 +3418,10 @@
     </row>
     <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="53" t="n">
         <v>24</v>
@@ -3196,10 +3439,10 @@
     </row>
     <row r="53" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" s="58" t="n">
         <v>37</v>
@@ -3217,10 +3460,10 @@
     </row>
     <row r="54" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54" s="63" t="n">
         <v>10</v>
@@ -3238,10 +3481,10 @@
     </row>
     <row r="55" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="68" t="n">
         <v>19</v>
@@ -3259,10 +3502,10 @@
     </row>
     <row r="56" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="63" t="n">
         <v>18</v>
@@ -3287,7 +3530,7 @@
     </row>
     <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C61" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
@@ -3298,20 +3541,20 @@
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62" s="94"/>
     </row>
     <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>8</v>
@@ -3329,10 +3572,10 @@
     </row>
     <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" s="53" t="n">
         <v>10</v>
@@ -3349,10 +3592,10 @@
     </row>
     <row r="65" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" s="58" t="n">
         <v>11</v>
@@ -3369,10 +3612,10 @@
     </row>
     <row r="66" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" s="81" t="n">
         <v>11</v>
@@ -3390,10 +3633,10 @@
     </row>
     <row r="67" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B67" s="85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C67" s="67" t="n">
         <v>10</v>
@@ -3411,10 +3654,10 @@
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68" s="88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" s="71" t="n">
         <v>7</v>
@@ -3432,10 +3675,10 @@
     </row>
     <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" s="82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69" s="81" t="n">
         <v>6</v>
@@ -3453,10 +3696,10 @@
     </row>
     <row r="70" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" s="67" t="n">
         <v>7</v>
@@ -3474,10 +3717,10 @@
     </row>
     <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" s="63" t="n">
         <v>10</v>
@@ -3504,7 +3747,7 @@
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="39"/>
       <c r="C76" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
@@ -3515,20 +3758,20 @@
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77" s="43"/>
       <c r="E77" s="94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F77" s="94"/>
     </row>
     <row r="78" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" s="48" t="s">
         <v>8</v>
@@ -3545,10 +3788,10 @@
     </row>
     <row r="79" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" s="67" t="n">
         <v>7</v>
@@ -3566,10 +3809,10 @@
     </row>
     <row r="80" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B80" s="88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" s="81" t="n">
         <v>4</v>
@@ -3586,10 +3829,10 @@
     </row>
     <row r="81" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B81" s="82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" s="83" t="n">
         <v>4</v>
@@ -3606,10 +3849,10 @@
     </row>
     <row r="82" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B82" s="85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" s="67" t="n">
         <v>4</v>
@@ -3626,10 +3869,10 @@
     </row>
     <row r="83" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" s="58" t="n">
         <v>5</v>
@@ -3647,10 +3890,10 @@
     </row>
     <row r="84" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B84" s="82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C84" s="63" t="n">
         <v>3</v>
@@ -3668,10 +3911,10 @@
     </row>
     <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" s="86" t="n">
         <v>4</v>
@@ -3688,10 +3931,10 @@
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C86" s="63" t="n">
         <v>5</v>
@@ -3752,18 +3995,18 @@
       <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
@@ -3773,18 +4016,18 @@
     <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="96"/>
       <c r="B2" s="97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="98"/>
       <c r="F2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="100" t="s">
         <v>8</v>
@@ -3801,7 +4044,7 @@
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="104" t="n">
         <v>5</v>
@@ -3819,7 +4062,7 @@
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="105"/>
@@ -3829,7 +4072,7 @@
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="105"/>
@@ -3839,7 +4082,7 @@
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="106" t="n">
         <v>5</v>
@@ -3856,7 +4099,7 @@
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="107"/>
@@ -3865,7 +4108,7 @@
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
@@ -3878,7 +4121,7 @@
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="95"/>
       <c r="D14" s="95"/>
@@ -3888,17 +4131,17 @@
     <row r="15" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="96"/>
       <c r="B15" s="97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="97"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="100" t="s">
         <v>8</v>
@@ -3915,7 +4158,7 @@
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="104" t="n">
         <v>5</v>
@@ -3933,7 +4176,7 @@
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="104"/>
       <c r="C18" s="107"/>
@@ -3943,7 +4186,7 @@
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="104"/>
       <c r="C19" s="107"/>
@@ -3953,7 +4196,7 @@
     </row>
     <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="106" t="n">
         <v>5</v>
@@ -3970,7 +4213,7 @@
     </row>
     <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="106"/>
       <c r="C21" s="112"/>
@@ -3979,7 +4222,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="112"/>
@@ -3991,7 +4234,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -4000,17 +4243,17 @@
     <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="96"/>
       <c r="B28" s="97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="97"/>
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="102" t="s">
         <v>8</v>
@@ -4027,7 +4270,7 @@
     </row>
     <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="104" t="n">
         <v>6</v>
@@ -4045,7 +4288,7 @@
     </row>
     <row r="31" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="104"/>
       <c r="C31" s="105"/>
@@ -4055,7 +4298,7 @@
     </row>
     <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="104"/>
       <c r="C32" s="105"/>
@@ -4065,7 +4308,7 @@
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="106" t="n">
         <v>7</v>
@@ -4082,7 +4325,7 @@
     </row>
     <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="106"/>
       <c r="C34" s="105"/>
@@ -4091,7 +4334,7 @@
     </row>
     <row r="35" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="106"/>
       <c r="C35" s="105"/>
@@ -4100,7 +4343,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -4109,17 +4352,17 @@
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="96"/>
       <c r="B42" s="97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="97"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="102" t="s">
         <v>8</v>
@@ -4136,7 +4379,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="104" t="n">
         <v>15</v>
@@ -4154,7 +4397,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="104"/>
       <c r="C45" s="105"/>
@@ -4164,7 +4407,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="104"/>
       <c r="C46" s="105"/>
@@ -4174,7 +4417,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="106" t="n">
         <v>16</v>
@@ -4191,7 +4434,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" s="106"/>
       <c r="C48" s="105"/>
@@ -4200,7 +4443,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="106"/>
       <c r="C49" s="105"/>
@@ -4209,7 +4452,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="40"/>
@@ -4218,17 +4461,17 @@
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="96"/>
       <c r="B56" s="97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" s="97"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" s="102" t="s">
         <v>8</v>
@@ -4245,7 +4488,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" s="104" t="n">
         <v>8</v>
@@ -4263,7 +4506,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="104"/>
       <c r="C59" s="105"/>
@@ -4273,7 +4516,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B60" s="104"/>
       <c r="C60" s="105"/>
@@ -4283,7 +4526,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" s="106" t="n">
         <v>11</v>
@@ -4300,7 +4543,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B62" s="106"/>
       <c r="C62" s="105"/>
@@ -4309,7 +4552,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="106"/>
       <c r="C63" s="105"/>
@@ -4318,7 +4561,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
@@ -4327,17 +4570,17 @@
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="96"/>
       <c r="B70" s="97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" s="97"/>
       <c r="D70" s="97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" s="97"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" s="102" t="s">
         <v>8</v>
@@ -4354,7 +4597,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" s="104" t="n">
         <v>6</v>
@@ -4372,7 +4615,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" s="104"/>
       <c r="C73" s="105"/>
@@ -4382,7 +4625,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B74" s="104"/>
       <c r="C74" s="105"/>
@@ -4392,7 +4635,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" s="106" t="n">
         <v>6</v>
@@ -4409,7 +4652,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="105"/>
@@ -4418,7 +4661,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="105"/>
